--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -35,7 +35,7 @@
     <author>mjc</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,39 +58,11 @@
           </rPr>
           <t xml:space="preserve">
 花的状态
-0：隐藏
-1：烟雾缭绕
-2：显示花瓶改变前
-3：显示花瓶改变后</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>mjc:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-奖状的状态
-0：隐藏
-1：烟雾缭绕
-2：显示奖状</t>
+0:表示不发生变化
+1：隐藏
+2：烟雾缭绕
+3：显示花瓶改变前
+4：显示花瓶改变后</t>
         </r>
       </text>
     </comment>
@@ -116,11 +88,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-相片的状态
-0：隐藏
-1：烟雾缭绕
-2：显示相框改变前
-3：显示相框改变后</t>
+奖状的状态
+0:表示不发生变化
+1：隐藏
+2：烟雾缭绕
+3：显示奖状修复前
+4：显示奖状修复后</t>
         </r>
       </text>
     </comment>
@@ -146,12 +119,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-戒指的状态
-0：隐藏
-1：烟雾缭绕
-2：显示草戒指
-3：显示钻戒
-</t>
+相片的状态
+0:表示不发生变化
+1：隐藏
+2：烟雾缭绕
+3：显示相框改变前
+4：显示相框改变后</t>
         </r>
       </text>
     </comment>
@@ -177,12 +150,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-女儿的状态
-0：隐藏
-1：给花的状态
-2：给戒指的状态
-3：给奖状的状态
-4：给照片的状态
+戒指的状态
+0:表示不发生变化
+1：隐藏
+2：烟雾缭绕
+3：显示空白戒指盒
+4：显示钻戒
 </t>
         </r>
       </text>
@@ -209,10 +182,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-蚂蚁的状态：
-0：一点小蚂蚁
-1：很多小蚂蚁
-2：爬满身子的小蚂蚁
+女儿的状态
+0:表示不发生变化
+1：隐藏
+2：给花的状态
+3：给戒指的状态
+4：给奖状的状态
+5：给照片的状态
 </t>
         </r>
       </text>
@@ -239,9 +215,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-大蚂蚁的状态：
-0：隐藏状态
-1：在右边看的状态</t>
+蚂蚁的状态：
+0:表示不发生变化
+1：一点小蚂蚁
+2：很多小蚂蚁
+3：爬满身子的小蚂蚁
+</t>
         </r>
       </text>
     </comment>
@@ -267,11 +246,151 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+大蚂蚁的状态：
+0:表示不发生变化
+1：隐藏状态
+2：在右边看的状态</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>mjc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 地裂的状态
-0：隐藏不显示
-1：小地裂
-2：中地裂
-3：大地裂</t>
+0:表示不发生变化
+1：隐藏不显示
+2：小地裂
+3：中地裂
+4：大地裂</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>mjc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+妈妈的状态：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:表示不发生变化
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：隐藏不显示
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：坐着
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：坐着哭</t>
         </r>
       </text>
     </comment>
@@ -280,20 +399,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>zhoumu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,47 +429,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daughter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_fissure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daughter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground_fissure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>big_ant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏第一幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈为什么一个人坐在这里......"],[0,"我能做些什么让她开心起来吗......"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏第一幕点击花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈最喜欢花了，如果给家里布置点花她一定会开心的！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏第一幕点击抽屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈看到我的好成绩，一定会高兴的吧！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕花瓶关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！看这个花漂亮吧~"],[1,"... ... 啊... 是囡囡啊..."],[0,"... ... 妈..."]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕抽屉关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你快看，我有这么多奖状和证书耶！"],[1,"... ..."],[1,"... 噢...囡囡真是令妈妈骄傲..."],[0,"......"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,39 +876,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="62.75" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -743,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -751,177 +935,430 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SunSet\sunset\game\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sunset\sunset\game\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="sound_info" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入游戏第一幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈为什么一个人坐在这里......"],[0,"我能做些什么让她开心起来吗......"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏第一幕点击花瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈最喜欢花了，如果给家里布置点花她一定会开心的！"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,10 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏第一幕点击抽屉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈看到我的好成绩，一定会高兴的吧！"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,7 +513,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第一幕点击花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击抽屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入第一幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[[0,"妈妈！你快看，我有这么多奖状和证书耶！"],[1,"... ..."],[1,"... 噢...囡囡真是令妈妈骄傲..."],[0,"......"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"如果能让妈妈想起刚结婚时的浪漫美好，可能他们就不会分开了吧..."]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击戒指盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击相框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕相框关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕戒指关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"如果能让妈妈想起刚结婚时的浪漫美好，可能他们就不会分开了吧..."]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你看我找到了什么！你们结婚时看起来还蛮青春靓丽的哦！"],[]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,26 +907,26 @@
   <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="62.75" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="4.58203125" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.4140625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -939,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -980,15 +1008,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1022,15 +1050,15 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1063,15 +1091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1104,15 +1132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1145,15 +1173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1186,12 +1214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1224,12 +1255,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1262,12 +1296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1300,78 +1337,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sunset\sunset\game\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SunSet\sunset\game\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
   </bookViews>
   <sheets>
-    <sheet name="sound_info" sheetId="1" r:id="rId1"/>
+    <sheet name="plot_info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -218,8 +218,7 @@
 蚂蚁的状态：
 0:表示不发生变化
 1：一点小蚂蚁
-2：很多小蚂蚁
-3：爬满身子的小蚂蚁
+2：爬满身子的小蚂蚁
 </t>
         </r>
       </text>
@@ -399,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,18 +484,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈最喜欢花了，如果给家里布置点花她一定会开心的！"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈看到我的好成绩，一定会高兴的吧！"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[0,"如果能让妈妈想起刚结婚时的浪漫美好，可能他们就不会分开了吧..."]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一幕点击戒指盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,11 +536,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[0,"如果能让妈妈想起刚结婚时的浪漫美好，可能他们就不会分开了吧..."]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,"妈妈！你看我找到了什么！你们结婚时看起来还蛮青春靓丽的哦！"],[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"让妈妈想起以前快乐的日子，他们就不会离婚了吧"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"这个一定会让妈妈想起当初的热情、誓言"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你看我找到了什么！这个钻戒闪闪发光哦！"],[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕蚂蚁爬到妈妈身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,"......"],[0,"妈妈！你看看我呀！！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"突然决定要分开也不和我商量... 跟你说话你也不听...  "]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,26 +934,26 @@
   <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="62.75" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="4.875" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -967,7 +994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1008,15 +1035,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1050,15 +1077,15 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1091,15 +1118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1132,21 +1159,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1173,15 +1200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1190,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1214,15 +1241,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1255,15 +1282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1296,15 +1323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1316,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1337,82 +1364,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="201" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -35,7 +35,7 @@
     <author>mjc</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,54 @@
   </si>
   <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕蚂蚁关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕相框和戒指关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_cg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -942,18 +990,18 @@
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="62.75" customWidth="1"/>
     <col min="3" max="3" width="9.08203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.08203125" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="4.58203125" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.08203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="4.58203125" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -964,37 +1012,43 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1005,10 +1059,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1017,25 +1071,28 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1045,29 +1102,27 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2"/>
+      <c r="E3">
         <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -1075,9 +1130,14 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1087,12 +1147,12 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -1117,8 +1177,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1128,12 +1194,12 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -1158,8 +1224,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1169,14 +1241,12 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1199,8 +1269,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1210,18 +1286,16 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2"/>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1240,8 +1314,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1251,12 +1331,12 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -1281,8 +1361,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1292,12 +1378,12 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -1322,8 +1408,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1333,21 +1425,19 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2"/>
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -1363,8 +1453,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1374,12 +1470,10 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2"/>
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -1387,11 +1481,11 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1404,103 +1498,199 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -982,7 +982,7 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,219 +416,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daughter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_fissure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈为什么一个人坐在这里......"],[0,"我能做些什么让她开心起来吗......"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈最喜欢花了，如果给家里布置点花她一定会开心的！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈看到我的好成绩，一定会高兴的吧！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕花瓶关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！看这个花漂亮吧~"],[1,"... ... 啊... 是囡囡啊..."],[0,"... ... 妈..."]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕抽屉关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击抽屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入第一幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你快看，我有这么多奖状和证书耶！"],[1,"... ..."],[1,"... 噢...囡囡真是令妈妈骄傲..."],[0,"......"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击戒指盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击相框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕相框关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕戒指关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你看我找到了什么！你们结婚时看起来还蛮青春靓丽的哦！"],[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"让妈妈想起以前快乐的日子，他们就不会离婚了吧"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"这个一定会让妈妈想起当初的热情、誓言"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"妈妈！你看我找到了什么！这个钻戒闪闪发光哦！"],[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕蚂蚁爬到妈妈身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,"......"],[0,"妈妈！你看看我呀！！"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕点击蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,"突然决定要分开也不和我商量... 跟你说话你也不听...  "]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕蚂蚁关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕相框和戒指关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daughter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>big_ant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground_fissure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈为什么一个人坐在这里......"],[0,"我能做些什么让她开心起来吗......"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈最喜欢花了，如果给家里布置点花她一定会开心的！"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈看到我的好成绩，一定会高兴的吧！"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕花瓶关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈！看这个花漂亮吧~"],[1,"... ... 啊... 是囡囡啊..."],[0,"... ... 妈..."]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕抽屉关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕点击花瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕点击抽屉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入第一幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈！你快看，我有这么多奖状和证书耶！"],[1,"... ..."],[1,"... 噢...囡囡真是令妈妈骄傲..."],[0,"......"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕点击戒指盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕点击相框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕相框关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕戒指关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈！你看我找到了什么！你们结婚时看起来还蛮青春靓丽的哦！"],[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"让妈妈想起以前快乐的日子，他们就不会离婚了吧"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"这个一定会让妈妈想起当初的热情、誓言"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"妈妈！你看我找到了什么！这个钻戒闪闪发光哦！"],[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕蚂蚁爬到妈妈身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,"......"],[0,"妈妈！你看看我呀！！"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕点击蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,"突然决定要分开也不和我商量... 跟你说话你也不听...  "]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕蚂蚁关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕相框和戒指关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after_cg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1009,100 +1025,102 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1139,16 +1157,16 @@
     </row>
     <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1186,16 +1204,16 @@
     </row>
     <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1233,15 +1251,17 @@
     </row>
     <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1278,15 +1298,17 @@
     </row>
     <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1323,16 +1345,16 @@
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1370,16 +1392,16 @@
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1417,15 +1439,17 @@
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1462,15 +1486,17 @@
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1507,15 +1533,17 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E12">
         <v>10</v>
       </c>
@@ -1552,15 +1580,17 @@
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E13">
         <v>11</v>
       </c>
@@ -1597,16 +1627,16 @@
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -1644,15 +1674,17 @@
     </row>
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E15">
         <v>13</v>
       </c>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
+    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
   </bookViews>
   <sheets>
     <sheet name="plot_info" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕蚂蚁关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕相框和戒指关卡结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,59 +644,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕蚂蚁关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一幕相框和戒指关卡结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after_cg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +998,7 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1025,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1107,6 +1107,9 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1119,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1166,7 +1169,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1213,7 +1216,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1260,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1307,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1354,7 +1357,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1401,7 +1404,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1448,7 +1451,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1495,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1533,16 +1536,16 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1589,7 +1592,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1636,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -1674,16 +1677,16 @@
     </row>
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>13</v>

--- a/game/data/excel/plot_info.xlsx
+++ b/game/data/excel/plot_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="11030"/>
   </bookViews>
   <sheets>
     <sheet name="plot_info" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,10 @@
   </si>
   <si>
     <t>to_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幕花瓶和抽屉关卡结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1002,7 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1347,20 +1351,20 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1369,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1395,19 +1399,19 @@
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1442,78 +1446,78 @@
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1536,19 +1540,19 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1560,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1578,24 +1582,24 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1613,36 +1617,36 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1660,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1677,55 +1681,97 @@
     </row>
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>13</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
